--- a/1.0版本功能开放时间点规划.xlsx
+++ b/1.0版本功能开放时间点规划.xlsx
@@ -26,12 +26,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>知交</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -40,12 +48,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>卡牌</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -57,12 +73,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>征收</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -71,12 +95,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>主角升级</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -85,12 +117,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>关卡</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -102,12 +142,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>副本</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -119,12 +167,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>商行</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -136,6 +192,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>芝麻官-牢房</t>
@@ -144,6 +201,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -155,12 +213,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>寻访</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -172,6 +238,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>芝麻官-寻访</t>
@@ -180,6 +247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -191,12 +259,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>回忆</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -208,6 +284,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>芝麻官-红颜</t>
@@ -216,6 +293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -227,12 +305,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>习楼</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -244,6 +330,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>芝麻官-子嗣</t>
@@ -252,6 +339,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -263,12 +351,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>风雅阁</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -280,6 +376,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>芝麻官-联姻</t>
@@ -288,6 +385,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -299,12 +397,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>市场</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -316,6 +422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>芝麻官-衙门</t>
@@ -324,6 +431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -332,12 +440,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>太史局</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -349,6 +465,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>芝麻官-学院</t>
@@ -357,6 +474,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -365,12 +483,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>家务</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -382,6 +508,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>芝麻官-政务</t>
@@ -390,6 +517,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -402,12 +530,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,43 +561,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,22 +577,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,34 +622,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,6 +673,49 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -591,187 +732,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,30 +937,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,28 +965,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,6 +1003,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -905,10 +1046,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -917,133 +1058,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,10 +1198,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1526,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1404,19 +1545,19 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" ht="40.5" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1424,19 +1565,19 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1460,7 +1601,7 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1484,13 +1625,13 @@
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
     </row>

--- a/1.0版本功能开放时间点规划.xlsx
+++ b/1.0版本功能开放时间点规划.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -397,14 +397,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>市场</t>
+      <t>侯门宴</t>
     </r>
     <r>
       <rPr>
@@ -440,14 +433,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>太史局</t>
+      <t>太史阁</t>
     </r>
     <r>
       <rPr>
@@ -530,10 +516,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -560,8 +546,136 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,142 +689,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -744,13 +730,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,25 +802,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,73 +880,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,49 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,10 +927,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -965,6 +977,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -976,30 +997,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,19 +1019,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,10 +1032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1058,137 +1044,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,6 +1188,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1526,7 +1515,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1625,10 +1614,10 @@
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
